--- a/Formulario.xlsx
+++ b/Formulario.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e5f8f3b729c6978/Escritorio/Radar Madurez Digital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A306EE96-AAA8-4FBA-83CB-5942EFAC1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A306EE96-AAA8-4FBA-83CB-5942EFAC1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B375B3D9-2F1F-4E0B-8C27-211238513AB7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74FF8288-C423-4078-B20F-6E3125F24242}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formulario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -502,7 +502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD6583-886C-4C3D-ABBB-C9CE05C8E71F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -522,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -538,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -562,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -570,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -578,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -586,7 +588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -610,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -618,7 +620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -626,7 +628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -634,7 +636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
